--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -189,9 +189,6 @@
     <t>Front cover</t>
   </si>
   <si>
-    <t>667-9977</t>
-  </si>
-  <si>
     <t>264-4646</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>Magnet</t>
+  </si>
+  <si>
+    <t>136-5467</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,7 +714,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>49</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <v>1.7000000000000001E-2</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>0.14199999999999999</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
       <c r="G20">
         <v>0.05</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
       </c>
       <c r="G21">
         <v>4.5999999999999999E-2</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22">
         <v>0.55000000000000004</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23">
         <v>0.05</v>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
       </c>
       <c r="G24">
         <v>0.16400000000000001</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
       </c>
       <c r="G25">
         <v>5.1999999999999998E-2</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
       </c>
       <c r="G26">
         <v>6.7000000000000004E-2</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
       </c>
       <c r="G27">
         <v>0.5</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
         <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
       </c>
       <c r="G28">
         <v>0.35220000000000001</v>
@@ -1367,29 +1367,29 @@
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
       <c r="G40">
-        <v>2.99</v>
+        <v>7.33</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>11.96</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="I41">
         <f>SUM(I10:I40)</f>
-        <v>176.29670000000002</v>
+        <v>178.9967</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Sport analyzer\Sport Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Documents\GitHub\Sport_Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Component</t>
   </si>
@@ -66,9 +66,6 @@
     <t>RJ12 cable</t>
   </si>
   <si>
-    <t>Jack Connector</t>
-  </si>
-  <si>
     <t>9V Battery connector</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
   </si>
   <si>
     <t>Total cost</t>
-  </si>
-  <si>
-    <t>Rapid electronics</t>
-  </si>
-  <si>
-    <t>54-4734</t>
   </si>
   <si>
     <t>124-5469</t>
@@ -645,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I41"/>
+  <dimension ref="D5:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,24 +661,24 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3">
         <f>3.55/10</f>
@@ -703,10 +694,10 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -714,10 +705,10 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -725,10 +716,10 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -742,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>27.41</v>
@@ -760,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>16.670000000000002</v>
@@ -772,50 +763,50 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I40" si="0">H11*G11</f>
+        <f t="shared" ref="I11:I39" si="0">H11*G11</f>
         <v>16.670000000000002</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12">
-        <v>0.90200000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>5.4119999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
       <c r="G13">
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
@@ -829,140 +820,140 @@
         <v>18</v>
       </c>
       <c r="G14">
-        <v>0.53</v>
+        <v>1.486</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.53</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1.486</v>
+        <v>1.36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>1.486</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G16">
-        <v>1.36</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2.72</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G17">
-        <v>0.58599999999999997</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0.58599999999999997</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18">
-        <v>1.7000000000000001E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>8.5000000000000006E-2</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <v>0.14199999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.14199999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
       <c r="G20">
-        <v>0.05</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
@@ -973,43 +964,43 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21">
-        <v>4.5999999999999999E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
       <c r="G22">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1018,378 +1009,357 @@
         <v>64</v>
       </c>
       <c r="G23">
-        <v>0.05</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
       <c r="G24">
-        <v>0.16400000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.16400000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
       <c r="G25">
-        <v>5.1999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
-      </c>
       <c r="G26">
-        <v>6.7000000000000004E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>6.7000000000000004E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
         <v>72</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.35220000000000001</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0.35220000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.35220000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G29">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>7.0000000000000007E-2</v>
+        <v>0.107</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2070346</v>
       </c>
       <c r="G31">
-        <v>0.107</v>
+        <v>1.92</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.64200000000000002</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2070346</v>
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>1.92</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>3.84</v>
+        <f>H32*G32</f>
+        <v>1.0485</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G33">
-        <v>0.34949999999999998</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <f>H33*G33</f>
-        <v>1.0485</v>
+        <f t="shared" si="0"/>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G34">
-        <v>16.989999999999998</v>
+        <v>32.5</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>16.989999999999998</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
       <c r="G35">
-        <v>32.5</v>
+        <v>29.09</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>29.09</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G36">
-        <v>29.09</v>
+        <f>11.09/2</f>
+        <v>5.5449999999999999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>29.09</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <f>11.09/2</f>
-        <v>5.5449999999999999</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>11.09</v>
+        <v>7.2939999999999996</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G38">
-        <v>7.2939999999999996</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>7.2939999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>7.33</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40">
-        <v>7.33</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>14.66</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="I41">
-        <f>SUM(I10:I40)</f>
-        <v>178.9967</v>
+        <f>SUM(I10:I39)</f>
+        <v>173.5847</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Documents\GitHub\Sport_Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\Sport analyzer\Sport Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Component</t>
   </si>
@@ -66,6 +66,9 @@
     <t>RJ12 cable</t>
   </si>
   <si>
+    <t>Jack Connector</t>
+  </si>
+  <si>
     <t>9V Battery connector</t>
   </si>
   <si>
@@ -100,6 +103,12 @@
   </si>
   <si>
     <t>Total cost</t>
+  </si>
+  <si>
+    <t>Rapid electronics</t>
+  </si>
+  <si>
+    <t>54-4734</t>
   </si>
   <si>
     <t>124-5469</t>
@@ -636,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I40"/>
+  <dimension ref="D5:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,24 +670,24 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3">
         <f>3.55/10</f>
@@ -694,10 +703,10 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -705,10 +714,10 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -716,10 +725,10 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -733,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>27.41</v>
@@ -751,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>16.670000000000002</v>
@@ -763,50 +772,50 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I39" si="0">H11*G11</f>
+        <f t="shared" ref="I11:I40" si="0">H11*G11</f>
         <v>16.670000000000002</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12">
-        <v>0.97</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.97</v>
+        <v>5.4119999999999999</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
@@ -820,140 +829,140 @@
         <v>18</v>
       </c>
       <c r="G14">
-        <v>1.486</v>
+        <v>0.53</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>1.486</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>1.36</v>
+        <v>1.486</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>2.72</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>0.58599999999999997</v>
+        <v>1.36</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.58599999999999997</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>1.7000000000000001E-2</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>8.5000000000000006E-2</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18">
-        <v>0.14199999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.14199999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19">
-        <v>0.05</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>4.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
@@ -964,43 +973,43 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21">
-        <v>0.55000000000000004</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1009,357 +1018,378 @@
         <v>64</v>
       </c>
       <c r="G23">
-        <v>0.16400000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.16400000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24">
-        <v>5.1999999999999998E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25">
-        <v>6.7000000000000004E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>6.7000000000000004E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>73</v>
       </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
       <c r="G27">
-        <v>0.35220000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.35220000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>0.06</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.35220000000000001</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>0.107</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.64200000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2070346</v>
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>1.92</v>
+        <v>0.107</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2070346</v>
       </c>
       <c r="G32">
-        <v>0.34949999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <f>H32*G32</f>
-        <v>1.0485</v>
+        <f t="shared" si="0"/>
+        <v>3.84</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>16.989999999999998</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>16.989999999999998</v>
+        <f>H33*G33</f>
+        <v>1.0485</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>32.5</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G35">
-        <v>29.09</v>
+        <v>32.5</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>29.09</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G36">
+        <v>29.09</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37">
         <f>11.09/2</f>
         <v>5.5449999999999999</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>11.09</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37">
-        <v>7.2939999999999996</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>7.2939999999999996</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7.2939999999999996</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40">
         <v>7.33</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <f t="shared" si="0"/>
         <v>14.66</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="I40">
-        <f>SUM(I10:I39)</f>
-        <v>173.5847</v>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <f>SUM(I10:I40)</f>
+        <v>178.9967</v>
       </c>
     </row>
   </sheetData>
